--- a/biology/Botanique/Aethusa/Aethusa.xlsx
+++ b/biology/Botanique/Aethusa/Aethusa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aethusa est un genre de plantes herbacées de la famille des Apiaceae qui ne compte, en Europe, qu'une seule espèce, toxique et largement répandue, la petite ciguë, laquelle se décline cependant en différentes sous-espèces.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Du grec αιθω, qui signifie « brûler », en référence à la toxicité de la plante.
 </t>
